--- a/PandasMiniProject.CH/Mini-Project-Part-1/output/ExampleOutputTask1.xlsx
+++ b/PandasMiniProject.CH/Mini-Project-Part-1/output/ExampleOutputTask1.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Total Surveyed</t>
-  </si>
-  <si>
-    <t>Total Bootcamp attendees</t>
-  </si>
-  <si>
-    <t>% attended bootcamp</t>
-  </si>
-  <si>
-    <t>Avg. Age</t>
-  </si>
-  <si>
-    <t>Has a degree</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Total Respondents</t>
+  </si>
+  <si>
+    <t>Total Bootcamp Attendees</t>
+  </si>
+  <si>
+    <t>Respondent/Attendee %</t>
+  </si>
+  <si>
+    <t>Average Attendee Age</t>
+  </si>
+  <si>
+    <t>% Degree</t>
   </si>
   <si>
     <t>% Male</t>
@@ -37,15 +37,21 @@
     <t>% Female</t>
   </si>
   <si>
-    <t>% Non Gender Specific</t>
-  </si>
-  <si>
-    <t>Average Post Bootcamp Salary</t>
+    <t>% Other Genders</t>
+  </si>
+  <si>
+    <t>Avg. Post Camp Salary</t>
+  </si>
+  <si>
+    <t>15,620</t>
   </si>
   <si>
     <t>6.10%</t>
   </si>
   <si>
+    <t>31.07</t>
+  </si>
+  <si>
     <t>66.84%</t>
   </si>
   <si>
@@ -58,7 +64,7 @@
     <t>1.32%</t>
   </si>
   <si>
-    <t>$63,741</t>
+    <t>$63740.51</t>
   </si>
 </sst>
 </file>
@@ -452,32 +458,32 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
-        <v>15620</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>953</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>31.07</v>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
